--- a/Projects/CCANZ_SAND/Data/template.xlsx
+++ b/Projects/CCANZ_SAND/Data/template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Exclude" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="20">
   <si>
     <t xml:space="preserve">KPI</t>
   </si>
@@ -62,7 +62,7 @@
     <t xml:space="preserve">2,4,2.25,2.4,10,3</t>
   </si>
   <si>
-    <t xml:space="preserve">WHITE MILK,Irrelevant </t>
+    <t xml:space="preserve">WHITE MILK,Irrelevant,General</t>
   </si>
   <si>
     <t xml:space="preserve">Share of Shelf by Linear</t>
@@ -72,9 +72,6 @@
   </si>
   <si>
     <t xml:space="preserve">Denominator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WHITE MILK,Irrelevant</t>
   </si>
   <si>
     <t xml:space="preserve"> FLAVOURED MILK,07- JUICE</t>
@@ -331,15 +328,16 @@
   </sheetPr>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.1785714285714"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="31.1836734693878"/>
-    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="29.2908163265306"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.6938775510204"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="30.1020408163265"/>
+    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="28.0765306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -403,7 +401,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
@@ -490,7 +488,7 @@
         <v>9</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -507,7 +505,7 @@
         <v>9</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6" t="s">
@@ -535,17 +533,18 @@
   </sheetPr>
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.9591836734694"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.515306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.4897959183673"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.4642857142857"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.6071428571429"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.7040816326531"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.5459183673469"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -576,10 +575,10 @@
         <v>8</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>20</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
@@ -595,7 +594,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
@@ -608,10 +607,10 @@
         <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>20</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
@@ -627,7 +626,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>

--- a/Projects/CCANZ_SAND/Data/template.xlsx
+++ b/Projects/CCANZ_SAND/Data/template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Exclude" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="18">
   <si>
     <t xml:space="preserve">KPI</t>
   </si>
@@ -53,7 +53,7 @@
     <t xml:space="preserve">category</t>
   </si>
   <si>
-    <t xml:space="preserve">FLAVOURED MILK,07- JUICE</t>
+    <t xml:space="preserve">Flavoured Milk,Juice</t>
   </si>
   <si>
     <t xml:space="preserve">size</t>
@@ -62,19 +62,13 @@
     <t xml:space="preserve">2,4,2.25,2.4,10,3</t>
   </si>
   <si>
-    <t xml:space="preserve">WHITE MILK,Irrelevant,General</t>
+    <t xml:space="preserve">Irrelevant,General,White milk</t>
   </si>
   <si>
     <t xml:space="preserve">Share of Shelf by Linear</t>
   </si>
   <si>
-    <t xml:space="preserve">FLAVOURED MILK, 07- JUICE</t>
-  </si>
-  <si>
     <t xml:space="preserve">Denominator</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> FLAVOURED MILK,07- JUICE</t>
   </si>
   <si>
     <t xml:space="preserve">brand</t>
@@ -90,7 +84,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -138,6 +132,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -219,7 +219,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -238,6 +238,10 @@
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -328,16 +332,15 @@
   </sheetPr>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.6938775510204"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="30.1020408163265"/>
-    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="28.0765306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.2857142857143"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="29.6989795918367"/>
+    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="27.8061224489796"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -376,11 +379,11 @@
       <c r="D2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="6" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="7" t="s">
         <v>12</v>
       </c>
     </row>
@@ -394,12 +397,12 @@
       <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
     </row>
     <row r="4" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
@@ -412,13 +415,13 @@
         <v>9</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="7" t="s">
         <v>12</v>
       </c>
     </row>
@@ -432,36 +435,36 @@
       <c r="C5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
     </row>
     <row r="6" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
     </row>
     <row r="7" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>9</v>
@@ -469,11 +472,11 @@
       <c r="D7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="6" t="s">
+      <c r="E7" s="6"/>
+      <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="7" t="s">
         <v>12</v>
       </c>
     </row>
@@ -482,36 +485,36 @@
         <v>14</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
     </row>
     <row r="9" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="7" t="s">
         <v>12</v>
       </c>
     </row>
@@ -533,18 +536,17 @@
   </sheetPr>
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.6071428571429"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.7040816326531"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.5459183673469"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.5204081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.0663265306122"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.4336734693878"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.2755102040816"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.25"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -575,29 +577,29 @@
         <v>8</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
+        <v>16</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
+      <c r="D3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
     </row>
     <row r="4" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
@@ -607,29 +609,29 @@
         <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
+        <v>16</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
     </row>
     <row r="5" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
+      <c r="D5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Projects/CCANZ_SAND/Data/template.xlsx
+++ b/Projects/CCANZ_SAND/Data/template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Exclude" sheetId="1" state="visible" r:id="rId2"/>
@@ -71,7 +71,7 @@
     <t xml:space="preserve">Denominator</t>
   </si>
   <si>
-    <t xml:space="preserve">brand</t>
+    <t xml:space="preserve">brand_name</t>
   </si>
   <si>
     <t xml:space="preserve">Empty</t>
@@ -84,7 +84,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -132,12 +132,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -219,7 +213,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -238,10 +232,6 @@
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -332,15 +322,16 @@
   </sheetPr>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.2857142857143"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="29.6989795918367"/>
-    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.8826530612245"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="29.2908163265306"/>
+    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="27.5408163265306"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -379,11 +370,11 @@
       <c r="D2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -397,12 +388,12 @@
       <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
     </row>
     <row r="4" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
@@ -417,11 +408,11 @@
       <c r="D4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7" t="s">
+      <c r="E4" s="6"/>
+      <c r="F4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -435,12 +426,12 @@
       <c r="C5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
     </row>
     <row r="6" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
@@ -452,12 +443,12 @@
       <c r="C6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
     </row>
     <row r="7" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
@@ -472,11 +463,11 @@
       <c r="D7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="7" t="s">
+      <c r="E7" s="5"/>
+      <c r="F7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -490,12 +481,12 @@
       <c r="C8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
     </row>
     <row r="9" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
@@ -510,11 +501,11 @@
       <c r="D9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7" t="s">
+      <c r="E9" s="6"/>
+      <c r="F9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -536,17 +527,18 @@
   </sheetPr>
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.0663265306122"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.4336734693878"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.2755102040816"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.25"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.5255102040816"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.1632653061224"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.0051020408163"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.9795918367347"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -579,11 +571,11 @@
       <c r="C2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
     </row>
     <row r="3" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
@@ -595,11 +587,11 @@
       <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
     </row>
     <row r="4" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
@@ -611,11 +603,11 @@
       <c r="C4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
     </row>
     <row r="5" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
@@ -627,11 +619,11 @@
       <c r="C5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Projects/CCANZ_SAND/Data/template.xlsx
+++ b/Projects/CCANZ_SAND/Data/template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Exclude" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="18">
   <si>
     <t xml:space="preserve">KPI</t>
   </si>
@@ -53,7 +53,7 @@
     <t xml:space="preserve">category</t>
   </si>
   <si>
-    <t xml:space="preserve">FLAVOURED MILK,07- JUICE</t>
+    <t xml:space="preserve">Flavoured Milk,Juice</t>
   </si>
   <si>
     <t xml:space="preserve">size</t>
@@ -62,25 +62,16 @@
     <t xml:space="preserve">2,4,2.25,2.4,10,3</t>
   </si>
   <si>
-    <t xml:space="preserve">WHITE MILK,Irrelevant </t>
+    <t xml:space="preserve">Irrelevant,General,White milk</t>
   </si>
   <si>
     <t xml:space="preserve">Share of Shelf by Linear</t>
   </si>
   <si>
-    <t xml:space="preserve">FLAVOURED MILK, 07- JUICE</t>
-  </si>
-  <si>
     <t xml:space="preserve">Denominator</t>
   </si>
   <si>
-    <t xml:space="preserve">WHITE MILK,Irrelevant</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> FLAVOURED MILK,07- JUICE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">brand</t>
+    <t xml:space="preserve">brand_name</t>
   </si>
   <si>
     <t xml:space="preserve">Empty</t>
@@ -331,15 +322,16 @@
   </sheetPr>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.1785714285714"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="31.1836734693878"/>
-    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="29.2908163265306"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.8826530612245"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="29.2908163265306"/>
+    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="27.5408163265306"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -403,7 +395,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
@@ -414,7 +406,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6" t="s">
@@ -446,7 +438,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>9</v>
@@ -463,7 +455,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>9</v>
@@ -484,13 +476,13 @@
         <v>14</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -501,13 +493,13 @@
         <v>14</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6" t="s">
@@ -535,17 +527,18 @@
   </sheetPr>
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.9591836734694"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.515306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.4897959183673"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.4642857142857"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.5255102040816"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.1632653061224"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.0051020408163"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.9795918367347"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -576,10 +569,10 @@
         <v>8</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
@@ -589,13 +582,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
@@ -608,10 +601,10 @@
         <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
@@ -621,13 +614,13 @@
         <v>14</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>

--- a/Projects/CCANZ_SAND/Data/template.xlsx
+++ b/Projects/CCANZ_SAND/Data/template.xlsx
@@ -1,18 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sneha\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E32D01ED-3254-46F6-A515-579C3739DED1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Exclude" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Include" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Exclude" sheetId="1" r:id="rId1"/>
+    <sheet name="Include" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
@@ -21,90 +31,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="18">
-  <si>
-    <t xml:space="preserve">KPI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">apply on</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Param 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Value 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Param 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Value 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Share of Shelf by Facing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Numerator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flavoured Milk,Juice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,4,2.25,2.4,10,3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Irrelevant,General,White milk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Share of Shelf by Linear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Denominator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">brand_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empty</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="17">
+  <si>
+    <t>KPI</t>
+  </si>
+  <si>
+    <t>apply on</t>
+  </si>
+  <si>
+    <t>Param 1</t>
+  </si>
+  <si>
+    <t>Value 1</t>
+  </si>
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>Param 2</t>
+  </si>
+  <si>
+    <t>Value 2</t>
+  </si>
+  <si>
+    <t>Share of Shelf by Facing</t>
+  </si>
+  <si>
+    <t>Numerator</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>Share of Shelf by Linear</t>
+  </si>
+  <si>
+    <t>Denominator</t>
+  </si>
+  <si>
+    <t>brand_name</t>
+  </si>
+  <si>
+    <t>Empty</t>
+  </si>
+  <si>
+    <t>Irrelevant</t>
+  </si>
+  <si>
+    <t>White milk</t>
+  </si>
+  <si>
+    <t>Product Type</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="16"/>
@@ -134,7 +123,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -147,111 +136,112 @@
         <bgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="medium"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
+  <cellStyles count="2">
+    <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -310,31 +300,340 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A16" sqref="A15:A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="24.6" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.8826530612245"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="29.2908163265306"/>
-    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="27.5408163265306"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.50510204081633"/>
+    <col min="1" max="1" width="55.109375" customWidth="1"/>
+    <col min="2" max="4" width="28.44140625"/>
+    <col min="5" max="6" width="26.88671875"/>
+    <col min="7" max="7" width="48.77734375"/>
+    <col min="8" max="1025" width="8.21875"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -357,7 +656,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -367,18 +666,14 @@
       <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -386,18 +681,18 @@
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>8</v>
@@ -405,115 +700,102 @@
       <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>13</v>
+      <c r="D6" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
     </row>
-    <row r="7" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="6" t="s">
+      <c r="B8" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>13</v>
+      <c r="D8" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>10</v>
-      </c>
       <c r="E9" s="6"/>
-      <c r="F9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>12</v>
-      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
@@ -521,27 +803,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.5255102040816"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.1632653061224"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.0051020408163"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.9795918367347"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.50510204081633"/>
+    <col min="1" max="1" width="36.6640625"/>
+    <col min="2" max="2" width="23.33203125"/>
+    <col min="3" max="3" width="21.44140625"/>
+    <col min="4" max="4" width="16.21875"/>
+    <col min="5" max="5" width="19.44140625"/>
+    <col min="6" max="1025" width="8.21875"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:6" ht="42" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -561,7 +840,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -569,67 +848,66 @@
         <v>8</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
